--- a/NEW HR/DONE/NATANAUAN, SENANDO.xlsx
+++ b/NEW HR/DONE/NATANAUAN, SENANDO.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE 2-2-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F531C205-F9A6-4FE3-9569-3FE1C9449C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="24" yWindow="48" windowWidth="23016" windowHeight="12312" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
   <si>
     <t>PERIOD</t>
   </si>
@@ -227,11 +228,17 @@
   <si>
     <t>5/2-5,8-12,15-19,22-26,29-31/23</t>
   </si>
+  <si>
+    <t>VL(11-0-0)</t>
+  </si>
+  <si>
+    <t>7/16-31/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -614,17 +621,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -638,20 +639,26 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1342,7 +1349,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1385,7 +1392,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1449,7 +1456,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1509,7 +1516,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1575,7 +1582,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1638,7 +1645,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1736,7 +1743,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1795,7 +1802,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1860,7 +1867,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1903,7 +1910,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1978,7 +1985,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2164,7 +2171,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2230,7 +2237,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2288,7 +2295,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2354,7 +2361,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2417,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2485,7 +2492,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2528,7 +2535,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2594,7 +2601,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2650,7 +2657,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2748,7 +2755,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2811,7 +2818,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2860,7 +2867,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2877,25 +2884,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2907,25 +2914,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2937,13 +2944,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2952,14 +2959,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3263,7 +3270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3273,7 +3280,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3281,93 +3288,93 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A67" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4428" topLeftCell="A76" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78:C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3375,7 +3382,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3388,24 +3395,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3440,7 +3447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3449,7 +3456,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>56.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3459,12 +3466,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>81.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3486,7 +3493,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3506,7 +3513,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3526,7 +3533,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3546,7 +3553,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3566,7 +3573,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3586,7 +3593,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3606,7 +3613,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3626,7 +3633,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3646,7 +3653,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3666,7 +3673,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3686,7 +3693,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3706,7 +3713,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3730,7 +3737,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3748,7 +3755,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3772,7 +3779,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3792,7 +3799,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3812,7 +3819,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3832,7 +3839,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3852,7 +3859,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3872,7 +3879,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3892,7 +3899,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3912,7 +3919,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3938,7 +3945,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3958,7 +3965,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3978,7 +3985,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3998,7 +4005,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -4016,7 +4023,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4036,7 +4043,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -4056,7 +4063,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -4076,7 +4083,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -4096,7 +4103,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -4116,7 +4123,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -4136,7 +4143,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -4156,7 +4163,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -4176,7 +4183,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -4196,7 +4203,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4216,7 +4223,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4236,7 +4243,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4260,7 +4267,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>45</v>
       </c>
@@ -4278,7 +4285,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4298,7 +4305,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4318,7 +4325,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4338,7 +4345,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4358,7 +4365,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4378,7 +4385,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4398,7 +4405,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4418,7 +4425,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4438,7 +4445,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4458,7 +4465,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4484,7 +4491,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4504,7 +4511,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4528,7 +4535,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>46</v>
       </c>
@@ -4546,7 +4553,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4566,7 +4573,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4586,7 +4593,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4606,7 +4613,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4626,7 +4633,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4646,7 +4653,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4666,7 +4673,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4686,7 +4693,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4706,7 +4713,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4726,7 +4733,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4746,7 +4753,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4766,7 +4773,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4790,7 +4797,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>47</v>
       </c>
@@ -4808,7 +4815,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44927</v>
       </c>
@@ -4828,7 +4835,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44958</v>
       </c>
@@ -4848,7 +4855,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44986</v>
       </c>
@@ -4868,41 +4875,45 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>45017</v>
       </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -4918,7 +4929,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4934,7 +4945,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4950,7 +4961,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4966,7 +4977,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4982,7 +4993,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4998,7 +5009,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -5014,7 +5025,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -5030,7 +5041,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -5046,7 +5057,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5062,7 +5073,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5078,7 +5089,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5094,7 +5105,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5110,7 +5121,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5126,7 +5137,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5142,7 +5153,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5158,7 +5169,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5174,7 +5185,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5190,7 +5201,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5206,7 +5217,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5222,7 +5233,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5238,7 +5249,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5254,7 +5265,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5270,7 +5281,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5286,7 +5297,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5302,7 +5313,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5318,7 +5329,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5334,7 +5345,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5350,7 +5361,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5366,7 +5377,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5382,7 +5393,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5398,7 +5409,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5414,7 +5425,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5430,7 +5441,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5446,7 +5457,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5462,7 +5473,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5478,7 +5489,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5494,7 +5505,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5510,7 +5521,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5526,7 +5537,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5542,7 +5553,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5558,7 +5569,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5574,7 +5585,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5590,7 +5601,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5606,7 +5617,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5622,7 +5633,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5638,7 +5649,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5654,7 +5665,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5670,7 +5681,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5686,7 +5697,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5702,7 +5713,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5718,7 +5729,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5734,7 +5745,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5750,7 +5761,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="41"/>
       <c r="B134" s="15"/>
       <c r="C134" s="42"/>
@@ -5768,23 +5779,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5807,104 +5818,104 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A3" activePane="bottomLeft"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4056" topLeftCell="A9" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="str">
+      <c r="B2" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B2:C2),"---------",'2018 LEAVE CREDITS'!B2:C2)</f>
         <v>NATANAUAN, SENANDO</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50" t="str">
+      <c r="B3" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B3:C3),"",'2018 LEAVE CREDITS'!B3:C3)</f>
         <v/>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57" t="str">
+      <c r="F3" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="str">
+      <c r="B4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B4:C4),"---------",'2018 LEAVE CREDITS'!B4:C4)</f>
         <v>CASUAL</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="str">
+      <c r="F4" s="56" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="56"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5912,7 +5923,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5925,24 +5936,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5977,7 +5988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5986,7 +5997,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>24.25</v>
+        <v>13.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6001,7 +6012,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -6023,7 +6034,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43831</v>
       </c>
@@ -6047,7 +6058,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>44105</v>
       </c>
@@ -6071,7 +6082,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
         <v>47</v>
       </c>
@@ -6089,7 +6100,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>45017</v>
       </c>
@@ -6109,15 +6120,21 @@
       <c r="H14" s="39"/>
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="62" t="s">
+      <c r="K14" s="50" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="20"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="40">
+        <v>45099</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="39"/>
+      <c r="D15" s="39">
+        <v>11</v>
+      </c>
       <c r="E15" s="9"/>
       <c r="F15" s="20"/>
       <c r="G15" s="13" t="str">
@@ -6127,9 +6144,11 @@
       <c r="H15" s="39"/>
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41"/>
       <c r="B16" s="15"/>
       <c r="C16" s="42"/>
@@ -6145,7 +6164,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20"/>
       <c r="C17" s="13"/>
@@ -6161,7 +6180,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
@@ -6177,7 +6196,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
@@ -6193,7 +6212,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -6209,7 +6228,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
@@ -6225,7 +6244,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -6241,7 +6260,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -6257,7 +6276,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -6273,7 +6292,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -6289,7 +6308,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -6305,7 +6324,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -6321,7 +6340,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -6337,7 +6356,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -6353,7 +6372,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -6369,7 +6388,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6385,7 +6404,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6401,7 +6420,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6417,7 +6436,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6433,7 +6452,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6449,7 +6468,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6465,7 +6484,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6481,7 +6500,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6497,7 +6516,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6513,7 +6532,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6529,7 +6548,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6545,7 +6564,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6561,7 +6580,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6577,7 +6596,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6593,7 +6612,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6609,7 +6628,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6625,7 +6644,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6641,7 +6660,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6657,7 +6676,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6673,7 +6692,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6689,7 +6708,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6705,7 +6724,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6721,7 +6740,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6737,7 +6756,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6753,7 +6772,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6769,7 +6788,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6785,7 +6804,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6801,7 +6820,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6817,7 +6836,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6833,7 +6852,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6849,7 +6868,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6865,7 +6884,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6881,7 +6900,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6897,7 +6916,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6913,7 +6932,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6929,7 +6948,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -6945,7 +6964,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -6961,7 +6980,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -6977,7 +6996,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -6993,7 +7012,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7009,7 +7028,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7025,7 +7044,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7041,7 +7060,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7057,7 +7076,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7073,7 +7092,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7089,7 +7108,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7105,7 +7124,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7121,7 +7140,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7137,7 +7156,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7153,7 +7172,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7169,7 +7188,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7185,7 +7204,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7201,7 +7220,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7217,7 +7236,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7233,7 +7252,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7249,7 +7268,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7265,7 +7284,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7281,7 +7300,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7297,7 +7316,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7313,7 +7332,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7329,7 +7348,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7345,7 +7364,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7361,7 +7380,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7377,7 +7396,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7393,7 +7412,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7409,7 +7428,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7425,7 +7444,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7441,7 +7460,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7457,7 +7476,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7473,7 +7492,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7489,7 +7508,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7505,7 +7524,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7521,7 +7540,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7537,7 +7556,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7553,7 +7572,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7569,7 +7588,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7585,7 +7604,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7601,7 +7620,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7617,7 +7636,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7633,7 +7652,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7649,7 +7668,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7665,7 +7684,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7681,7 +7700,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7697,7 +7716,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7713,7 +7732,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7729,7 +7748,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7745,7 +7764,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7761,7 +7780,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7777,7 +7796,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7793,7 +7812,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7809,7 +7828,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7825,7 +7844,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -7841,7 +7860,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -7857,7 +7876,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -7873,7 +7892,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -7889,7 +7908,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -7905,7 +7924,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -7921,7 +7940,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -7937,7 +7956,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -7953,7 +7972,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -7984,10 +8003,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8010,7 +8029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8018,34 +8037,34 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="60" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="J1" s="61" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8074,7 +8093,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>46.25</v>
       </c>
@@ -8098,17 +8117,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8122,14 +8141,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8156,7 +8175,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8182,7 +8201,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8208,7 +8227,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8234,7 +8253,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8260,7 +8279,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8286,7 +8305,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8312,7 +8331,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8338,7 +8357,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8358,7 +8377,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8378,7 +8397,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8398,7 +8417,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8419,7 +8438,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8440,7 +8459,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8461,7 +8480,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8482,7 +8501,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8503,7 +8522,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8524,7 +8543,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8545,7 +8564,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8566,7 +8585,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8587,7 +8606,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8608,7 +8627,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8629,7 +8648,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8650,7 +8669,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8671,7 +8690,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8692,7 +8711,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8713,7 +8732,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8734,7 +8753,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8755,7 +8774,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8776,7 +8795,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8797,7 +8816,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8818,7 +8837,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8827,7 +8846,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8836,7 +8855,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8845,7 +8864,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8854,7 +8873,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8863,7 +8882,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8872,7 +8891,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8881,7 +8900,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8890,7 +8909,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8899,7 +8918,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8908,7 +8927,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8917,7 +8936,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8926,7 +8945,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8935,7 +8954,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -8944,7 +8963,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -8953,7 +8972,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -8962,7 +8981,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -8971,7 +8990,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -8980,7 +8999,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -8989,7 +9008,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -8998,7 +9017,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9007,7 +9026,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9016,7 +9035,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9025,7 +9044,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9034,7 +9053,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9043,7 +9062,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9052,7 +9071,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9061,7 +9080,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9070,7 +9089,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9079,7 +9098,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DONE/NATANAUAN, SENANDO.xlsx
+++ b/NEW HR/DONE/NATANAUAN, SENANDO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F531C205-F9A6-4FE3-9569-3FE1C9449C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5A5EB0-120F-4CE0-A04E-2F0DA65C3005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="48" windowWidth="23016" windowHeight="12312" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
   <si>
     <t>PERIOD</t>
   </si>
@@ -233,6 +233,12 @@
   </si>
   <si>
     <t>7/16-31/2023</t>
+  </si>
+  <si>
+    <t>VL(8-0-0)</t>
+  </si>
+  <si>
+    <t>8/7-16/2023</t>
   </si>
 </sst>
 </file>
@@ -627,6 +633,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -639,20 +654,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3295,9 +3301,9 @@
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4428" topLeftCell="A76" activePane="bottomLeft"/>
+      <pane ySplit="4428" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="C78" sqref="C78:C80"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83:C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3327,14 +3333,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -3345,14 +3351,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3365,14 +3371,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3398,18 +3404,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3456,7 +3462,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>56.25</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3466,7 +3472,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>81.25</v>
+        <v>83.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4817,7 +4823,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13">
@@ -4837,7 +4843,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13">
@@ -4857,7 +4863,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13">
@@ -4877,7 +4883,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13">
@@ -4896,7 +4902,9 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>45077</v>
+      </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
         <v>1.25</v>
@@ -4914,15 +4922,19 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>45107</v>
+      </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -4930,15 +4942,19 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>45138</v>
+      </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -4946,7 +4962,9 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45169</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -4962,7 +4980,9 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45199</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -4978,7 +4998,9 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>45230</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -4994,7 +5016,9 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45260</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -5010,7 +5034,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45291</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -5026,7 +5052,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45322</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -5042,7 +5070,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45351</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -5779,17 +5809,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -5827,7 +5857,7 @@
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4056" topLeftCell="A9" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5858,14 +5888,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -5879,17 +5909,17 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55" t="str">
+      <c r="F3" s="58" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -5903,17 +5933,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="str">
+      <c r="F4" s="52" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -5939,18 +5969,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -5997,7 +6027,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>13.25</v>
+        <v>5.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6149,10 +6179,16 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="41">
+        <v>45124</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
+      <c r="D16" s="43">
+        <v>8</v>
+      </c>
       <c r="E16" s="9"/>
       <c r="F16" s="15"/>
       <c r="G16" s="42" t="str">
@@ -6162,7 +6198,9 @@
       <c r="H16" s="43"/>
       <c r="I16" s="9"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="15"/>
+      <c r="K16" s="15" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>

--- a/NEW HR/DONE/NATANAUAN, SENANDO.xlsx
+++ b/NEW HR/DONE/NATANAUAN, SENANDO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5A5EB0-120F-4CE0-A04E-2F0DA65C3005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
   <si>
     <t>PERIOD</t>
   </si>
@@ -240,11 +239,20 @@
   <si>
     <t>8/7-16/2023</t>
   </si>
+  <si>
+    <t>SL(4-0-0)</t>
+  </si>
+  <si>
+    <t>8/1-4/23</t>
+  </si>
+  <si>
+    <t>8/17,18,22,23/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1355,7 +1363,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1398,7 +1406,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1462,7 +1470,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1522,7 +1530,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1588,7 +1596,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1651,7 +1659,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1749,7 +1757,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1808,7 +1816,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1873,7 +1881,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1916,7 +1924,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1991,7 +1999,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2177,7 +2185,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2243,7 +2251,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2301,7 +2309,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2367,7 +2375,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2423,7 +2431,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2498,7 +2506,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2541,7 +2549,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2607,7 +2615,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2663,7 +2671,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2761,7 +2769,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2824,7 +2832,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2873,7 +2881,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2890,25 +2898,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2920,25 +2928,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2950,13 +2958,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2965,14 +2973,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3276,7 +3284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3286,7 +3294,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3294,34 +3302,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4428" topLeftCell="A79" activePane="bottomLeft"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="4425" topLeftCell="A79" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
       <selection pane="bottomLeft" activeCell="B83" sqref="B83:C83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3342,7 +3350,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3360,7 +3368,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3380,7 +3388,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3388,7 +3396,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3401,7 +3409,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -3418,7 +3426,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3453,7 +3461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3477,7 +3485,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3499,7 +3507,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3519,7 +3527,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3539,7 +3547,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3559,7 +3567,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3579,7 +3587,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3599,7 +3607,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3619,7 +3627,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3639,7 +3647,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3659,7 +3667,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3679,7 +3687,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3699,7 +3707,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3719,7 +3727,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3743,7 +3751,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3761,7 +3769,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3785,7 +3793,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3805,7 +3813,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3825,7 +3833,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3845,7 +3853,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3865,7 +3873,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3885,7 +3893,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3905,7 +3913,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3925,7 +3933,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3951,7 +3959,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3971,7 +3979,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3991,7 +3999,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -4011,7 +4019,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -4029,7 +4037,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4049,7 +4057,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -4069,7 +4077,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -4089,7 +4097,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -4109,7 +4117,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -4129,7 +4137,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -4149,7 +4157,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -4169,7 +4177,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -4189,7 +4197,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -4209,7 +4217,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4229,7 +4237,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4249,7 +4257,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4273,7 +4281,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>45</v>
       </c>
@@ -4291,7 +4299,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4311,7 +4319,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4331,7 +4339,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4351,7 +4359,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4371,7 +4379,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4391,7 +4399,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4411,7 +4419,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4431,7 +4439,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4451,7 +4459,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4471,7 +4479,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4497,7 +4505,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4517,7 +4525,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4541,7 +4549,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>46</v>
       </c>
@@ -4559,7 +4567,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4579,7 +4587,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4599,7 +4607,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4619,7 +4627,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4639,7 +4647,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4659,7 +4667,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4679,7 +4687,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4699,7 +4707,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4719,7 +4727,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4739,7 +4747,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4759,7 +4767,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4779,7 +4787,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4803,7 +4811,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>47</v>
       </c>
@@ -4821,7 +4829,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44957</v>
       </c>
@@ -4841,7 +4849,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44985</v>
       </c>
@@ -4861,7 +4869,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>45016</v>
       </c>
@@ -4881,7 +4889,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45046</v>
       </c>
@@ -4901,7 +4909,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45077</v>
       </c>
@@ -4921,7 +4929,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45107</v>
       </c>
@@ -4941,7 +4949,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45138</v>
       </c>
@@ -4961,7 +4969,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45169</v>
       </c>
@@ -4979,7 +4987,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45199</v>
       </c>
@@ -4997,7 +5005,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45230</v>
       </c>
@@ -5015,7 +5023,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45260</v>
       </c>
@@ -5033,7 +5041,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45291</v>
       </c>
@@ -5051,7 +5059,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45322</v>
       </c>
@@ -5069,7 +5077,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45351</v>
       </c>
@@ -5087,7 +5095,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5103,7 +5111,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5119,7 +5127,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5135,7 +5143,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5151,7 +5159,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5167,7 +5175,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5183,7 +5191,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5199,7 +5207,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5215,7 +5223,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5231,7 +5239,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5247,7 +5255,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5263,7 +5271,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5279,7 +5287,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5295,7 +5303,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5311,7 +5319,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5327,7 +5335,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5343,7 +5351,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5359,7 +5367,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5375,7 +5383,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5391,7 +5399,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5407,7 +5415,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5423,7 +5431,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5439,7 +5447,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5455,7 +5463,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5471,7 +5479,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5487,7 +5495,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5503,7 +5511,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5519,7 +5527,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5535,7 +5543,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5551,7 +5559,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5567,7 +5575,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5583,7 +5591,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5599,7 +5607,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5615,7 +5623,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5631,7 +5639,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5647,7 +5655,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5663,7 +5671,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5679,7 +5687,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5695,7 +5703,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5711,7 +5719,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5727,7 +5735,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5743,7 +5751,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5759,7 +5767,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5775,7 +5783,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5791,7 +5799,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="41"/>
       <c r="B134" s="15"/>
       <c r="C134" s="42"/>
@@ -5822,10 +5830,10 @@
     <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5848,34 +5856,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A9" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A9" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5897,7 +5905,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5921,7 +5929,7 @@
       <c r="J3" s="59"/>
       <c r="K3" s="60"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5945,7 +5953,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5953,7 +5961,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5966,7 +5974,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -5983,7 +5991,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6018,7 +6026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6037,12 +6045,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>52.5</v>
+        <v>44.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -6064,7 +6072,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43831</v>
       </c>
@@ -6088,7 +6096,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>44105</v>
       </c>
@@ -6112,7 +6120,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
         <v>47</v>
       </c>
@@ -6130,7 +6138,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>45017</v>
       </c>
@@ -6154,7 +6162,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>45099</v>
       </c>
@@ -6178,7 +6186,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>45124</v>
       </c>
@@ -6202,9 +6210,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
-      <c r="B17" s="20"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="40">
+        <v>45153</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C17" s="13"/>
       <c r="D17" s="39"/>
       <c r="E17" s="9"/>
@@ -6213,14 +6225,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H17" s="39"/>
+      <c r="H17" s="39">
+        <v>4</v>
+      </c>
       <c r="I17" s="9"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="20"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K17" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
-      <c r="B18" s="20"/>
+      <c r="B18" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C18" s="13"/>
       <c r="D18" s="39"/>
       <c r="E18" s="9"/>
@@ -6229,12 +6247,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H18" s="39"/>
+      <c r="H18" s="39">
+        <v>4</v>
+      </c>
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K18" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
@@ -6250,7 +6272,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -6266,7 +6288,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
@@ -6282,7 +6304,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -6298,7 +6320,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -6314,7 +6336,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -6330,7 +6352,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -6346,7 +6368,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -6362,7 +6384,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -6378,7 +6400,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -6394,7 +6416,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -6410,7 +6432,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -6426,7 +6448,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -6442,7 +6464,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6458,7 +6480,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -6474,7 +6496,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6490,7 +6512,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6506,7 +6528,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6522,7 +6544,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6538,7 +6560,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6554,7 +6576,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6570,7 +6592,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6586,7 +6608,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6602,7 +6624,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6618,7 +6640,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6634,7 +6656,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6650,7 +6672,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6666,7 +6688,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6682,7 +6704,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6698,7 +6720,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6714,7 +6736,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6730,7 +6752,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6746,7 +6768,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6762,7 +6784,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6778,7 +6800,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6794,7 +6816,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6810,7 +6832,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6826,7 +6848,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6842,7 +6864,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6858,7 +6880,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6874,7 +6896,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6890,7 +6912,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6906,7 +6928,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -6922,7 +6944,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -6938,7 +6960,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -6954,7 +6976,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -6970,7 +6992,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -6986,7 +7008,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7002,7 +7024,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7018,7 +7040,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7034,7 +7056,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7050,7 +7072,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7066,7 +7088,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7082,7 +7104,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7098,7 +7120,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7114,7 +7136,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7130,7 +7152,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7146,7 +7168,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7162,7 +7184,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7178,7 +7200,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7194,7 +7216,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7210,7 +7232,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7226,7 +7248,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7242,7 +7264,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7258,7 +7280,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7274,7 +7296,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7290,7 +7312,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7306,7 +7328,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7322,7 +7344,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7338,7 +7360,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7354,7 +7376,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7370,7 +7392,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7386,7 +7408,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7402,7 +7424,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7418,7 +7440,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7434,7 +7456,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7450,7 +7472,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7466,7 +7488,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7482,7 +7504,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7498,7 +7520,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7514,7 +7536,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7530,7 +7552,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7546,7 +7568,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7562,7 +7584,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7578,7 +7600,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7594,7 +7616,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7610,7 +7632,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7626,7 +7648,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7642,7 +7664,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7658,7 +7680,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7674,7 +7696,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7690,7 +7712,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7706,7 +7728,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7722,7 +7744,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7738,7 +7760,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7754,7 +7776,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7770,7 +7792,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7786,7 +7808,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7802,7 +7824,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7818,7 +7840,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7834,7 +7856,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7850,7 +7872,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7866,7 +7888,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7882,7 +7904,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -7898,7 +7920,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -7914,7 +7936,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -7930,7 +7952,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -7946,7 +7968,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -7962,7 +7984,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -7978,7 +8000,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -7994,7 +8016,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8010,7 +8032,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -8041,10 +8063,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8067,7 +8089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8075,21 +8097,21 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -8102,7 +8124,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8131,7 +8153,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>46.25</v>
       </c>
@@ -8155,17 +8177,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8186,7 +8208,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8213,7 +8235,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8239,7 +8261,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8265,7 +8287,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8291,7 +8313,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8317,7 +8339,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8343,7 +8365,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8369,7 +8391,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8395,7 +8417,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8415,7 +8437,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8435,7 +8457,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8455,7 +8477,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8476,7 +8498,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8497,7 +8519,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8518,7 +8540,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8539,7 +8561,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8560,7 +8582,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8581,7 +8603,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8602,7 +8624,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8623,7 +8645,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8644,7 +8666,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8665,7 +8687,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8686,7 +8708,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8707,7 +8729,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8728,7 +8750,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8749,7 +8771,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8770,7 +8792,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8791,7 +8813,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8812,7 +8834,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8833,7 +8855,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8854,7 +8876,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8875,7 +8897,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8884,7 +8906,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8893,7 +8915,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8902,7 +8924,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -8911,7 +8933,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -8920,7 +8942,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -8929,7 +8951,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -8938,7 +8960,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -8947,7 +8969,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -8956,7 +8978,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -8965,7 +8987,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -8974,7 +8996,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -8983,7 +9005,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -8992,7 +9014,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9001,7 +9023,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9010,7 +9032,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9019,7 +9041,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9028,7 +9050,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9037,7 +9059,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9046,7 +9068,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9055,7 +9077,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9064,7 +9086,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9073,7 +9095,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9082,7 +9104,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9091,7 +9113,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9100,7 +9122,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9109,7 +9131,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9118,7 +9140,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9127,7 +9149,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9136,7 +9158,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
